--- a/big-data/big-data-capstone/project/data/beer_n_Jeju Baengnokdam Ale.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Jeju Baengnokdam Ale.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>colui72(3,999)
+          <t>colui72(4,004)
 🇭🇰Yuen Long, Hong Kong
 3.1March 20, 2020
 The last Korean of my quarantine grocery is a Witbier. Pretty decent to be honest. Pours clear golden, small white soapy head, lastong, with good lacing retention. Aroma is bready and…
